--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2690950.069034961</v>
+        <v>2795129.703486033</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8802557.796585793</v>
+        <v>8802557.796585795</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>226.6014924540153</v>
       </c>
       <c r="V2" t="n">
-        <v>97.91652990141372</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -795,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.682695777305</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>91.79944118750086</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.57567088453452</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>266.0286480233245</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>352.9369085370654</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>149.274938000515</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>88.02310215086416</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>20.87708148313797</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>91.86872394650734</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>78.95168596841593</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>129.5898374232945</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>40.37234576591481</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>111.3062202753126</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>108.5813113004301</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>36.2249434387023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417096</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187833</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833875</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>9.146142788179917</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695389</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.65115569188687</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673025</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>66.85274231757958</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>124.0270735093607</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>21.90286287505447</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>32.05158559392667</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>66.85274231757755</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6452826062324948</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784659</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.86766651429361</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>38.21875275158355</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788178581</v>
+        <v>33.66638448559993</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.24096871741</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>22.65115569188665</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444106</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3096.715425190973</v>
       </c>
       <c r="V2" t="n">
-        <v>3116.409567377262</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="W2" t="n">
-        <v>2763.640912107148</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="X2" t="n">
-        <v>2763.640912107148</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>256.564501884041</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="C4" t="n">
-        <v>256.564501884041</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4486,52 +4488,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="W4" t="n">
-        <v>666.202517612298</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="X4" t="n">
-        <v>438.2129667142807</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.2129667142807</v>
+        <v>639.3706644025399</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4565,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2740.621599436322</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.155841175242</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>252.7500180086504</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C7" t="n">
-        <v>252.7500180086504</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D7" t="n">
-        <v>252.7500180086504</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>252.7500180086504</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>252.7500180086504</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4723,52 +4725,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>252.7500180086504</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>252.7500180086504</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X7" t="n">
-        <v>252.7500180086504</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y7" t="n">
-        <v>252.7500180086504</v>
+        <v>631.469835781224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3304.517860515091</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3304.517860515091</v>
+        <v>3122.518462281207</v>
       </c>
       <c r="U8" t="n">
-        <v>3050.987383788927</v>
+        <v>3122.518462281207</v>
       </c>
       <c r="V8" t="n">
-        <v>2719.924496445356</v>
+        <v>2791.455574937636</v>
       </c>
       <c r="W8" t="n">
-        <v>2367.155841175242</v>
+        <v>2438.686919667522</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.155841175242</v>
+        <v>2065.221161406442</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>313.9641308033391</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
@@ -4993,19 +4995,19 @@
         <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V10" t="n">
-        <v>700.1577228956174</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W10" t="n">
-        <v>700.1577228956174</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="X10" t="n">
-        <v>700.1577228956174</v>
+        <v>313.9641308033391</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.1577228956174</v>
+        <v>313.9641308033391</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5023,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,7 +5047,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2337.284991357604</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.683526380545</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5506,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168579</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192269</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111683</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075776</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332384</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694705</v>
@@ -5774,28 +5776,28 @@
         <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5814,40 +5816,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452622</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452622</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718139</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866305</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866305</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866305</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756264</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452622</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718139</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>558.019349243338</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C25" t="n">
-        <v>558.019349243338</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797182</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2424.083128335929</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2241.228293990834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2021.626829013775</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.551602357973</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.867114152086</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1188.449944115125</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>960.4603932171078</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.6678140735777</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192895</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714586</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>739.535451687217</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313769</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>991.7436897307817</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>822.8075068028749</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797741</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X28" t="n">
-        <v>1394.184733704551</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y28" t="n">
-        <v>1173.392154561021</v>
+        <v>3410.065251624868</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468469</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468469</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373398</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558403</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630496</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>2566.6633827163</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>2566.6633827163</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>2419.773435218389</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218389</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218389</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650994</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305898</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328839</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673037</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.15426443019</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532173</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388643</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192895</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756265</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756265</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021781</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729773</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801866</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>3998.649825808281</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>3709.23265577132</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>3481.243104873303</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>3260.450525729773</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192584</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7002,40 +7004,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>562.8579153358628</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.5582272005026</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>533.5582272005026</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4415877881669</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057737</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057737</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2399.622006293094</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2216.767171947999</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1997.16570697094</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.090480315137</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.405992109251</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.98882207229</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>935.9992711742725</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.2066920307424</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192584</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7239,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273893</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803935</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516139</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167372</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.45752234853</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876679</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C40" t="n">
-        <v>411.963121559761</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D40" t="n">
-        <v>411.963121559761</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E40" t="n">
-        <v>411.963121559761</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258105</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602303</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396416</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359455</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614378</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179076</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192622</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7476,37 +7478,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273893</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516139</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167372</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.45752234853</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.45752234853</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876679</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876679</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>430.7826650753321</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310022</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362654</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7715,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962605</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589157</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558402</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630495</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630495</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630495</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2504.882831151422</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866302</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729139</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389147</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098132</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671691</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398591</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650993</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305897</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328838</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673036</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.57143446715</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430189</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532172</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388642</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>178.21230758618</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>68.52575990662474</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.44497470121448</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823042</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>72.1196935303856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>43.72409101823484</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194166</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>112.9792378643577</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.58839950885167</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>126.7126101431579</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>220.0860577299013</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>112.9792378643597</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>251.4923607175955</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.5075801958281</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>179.1866975757047</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347527</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>123.7828069546825</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
     <row r="15">
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="H2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551203</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189212</v>
+        <v>16046.58397189206</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.5839718921</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189208</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189212</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189208</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26503,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550045</v>
+        <v>-852915.9702550046</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725881</v>
       </c>
       <c r="D6" t="n">
         <v>475828.7754725876</v>
       </c>
       <c r="E6" t="n">
-        <v>223314.3691411006</v>
+        <v>223314.3691411001</v>
       </c>
       <c r="F6" t="n">
-        <v>548726.8309484557</v>
+        <v>548726.830948456</v>
       </c>
       <c r="G6" t="n">
         <v>548726.8309484557</v>
@@ -26540,28 +26542,28 @@
         <v>548726.830948456</v>
       </c>
       <c r="I6" t="n">
-        <v>548726.8309484555</v>
+        <v>548726.830948456</v>
       </c>
       <c r="J6" t="n">
-        <v>331195.628551178</v>
+        <v>331195.6285511783</v>
       </c>
       <c r="K6" t="n">
-        <v>548726.8309484557</v>
+        <v>548726.8309484561</v>
       </c>
       <c r="L6" t="n">
-        <v>548726.8309484557</v>
+        <v>548726.8309484558</v>
       </c>
       <c r="M6" t="n">
         <v>463671.8030129439</v>
       </c>
       <c r="N6" t="n">
-        <v>548726.8309484556</v>
+        <v>548726.8309484558</v>
       </c>
       <c r="O6" t="n">
-        <v>548726.830948456</v>
+        <v>548726.8309484558</v>
       </c>
       <c r="P6" t="n">
-        <v>548726.8309484557</v>
+        <v>548726.8309484558</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26753,31 +26755,31 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022934</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>24.39367950488671</v>
       </c>
       <c r="V2" t="n">
-        <v>229.8357285687212</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>56.81603183071149</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>131.8582917620346</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>83.21232069408853</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>16.79419214140358</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>30.5570421814223</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>78.00270610816406</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>88.31068030503786</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>112.0492461931128</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>88.2951351302119</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>122.5478059005335</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28810,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.81768359636456e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810207</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067199</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>248.0319961154052</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209205</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067262</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772197</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437241</v>
+        <v>537.6437863443696</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422584</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>302.5540177178175</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067262</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.8517673857168</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4622569139917</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>572.8682992214867</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485289</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.883274947307</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>163.1438255932952</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>353.1300748477964</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328834</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949992</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236314005</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>110.1905571410462</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>477.9853321427311</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410463</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236320278</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028606931</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992796</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678994</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>171.2123056344842</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236320278</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.5100553023835</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>322.6208179396327</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>430.2720547770423</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674328</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>20.54758114885074</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.53969023631758</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>219.1556674334661</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>191.3582339884389</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2795129.703486033</v>
+        <v>2791117.093472043</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8802557.796585795</v>
+        <v>8802557.796585793</v>
       </c>
     </row>
     <row r="11">
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>226.6014924540153</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>236.1496593854058</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.682695777305</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>14.57567088453452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>271.4707209265931</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>352.9369085370654</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.274938000515</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>209.5905696186626</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>91.86872394650734</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>78.95168596841593</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176154</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.37234576591481</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187864</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.3062202753126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>26.05480806223633</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179917</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>34.21058558914884</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2371,7 +2371,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="26">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.85274231757958</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>32.05158559392667</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.85274231757755</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646516</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>38.21875275158355</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>33.66638448559993</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>139.5115415340516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4321,13 +4321,13 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4354,25 +4354,25 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3096.715425190973</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2765.652537847403</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2765.652537847403</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2392.186779586323</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y2" t="n">
         <v>2392.186779586323</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>639.3706644025399</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>639.3706644025399</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>639.3706644025399</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612893</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>480.6870701241381</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962312</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>631.469835781224</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.469835781224</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1032.872711818408</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3122.518462281207</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3122.518462281207</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2791.455574937636</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2438.686919667522</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2065.221161406442</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.9641308033391</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574644</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574644</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>313.9641308033391</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>313.9641308033391</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,22 +5056,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2387.388512467613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5481,7 +5481,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192269</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111683</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075776</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,40 +5816,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746423</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6019,10 +6019,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,22 +6053,22 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
         <v>577.3880777468471</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188007</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797747</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490404</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3410.065251624868</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,49 +6700,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y34" t="n">
-        <v>1166.195182806534</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2225.50344847599</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1936.428221820188</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>666.7308394007268</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>518.8177458183337</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.5813165460164</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>385.6451336181095</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.21230758618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.52575990662474</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>72.1196935303856</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194166</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9792378643577</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>220.0860577299013</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.9792378643597</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>45.44677382459258</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>10.85445046951701</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>179.1866975757047</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>111.7546635373313</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385633</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761859.2038385636</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551203</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405257</v>
-      </c>
       <c r="E4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.5839718919</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26447,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550046</v>
+        <v>-852915.9702550044</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725881</v>
+        <v>475828.7754725879</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725876</v>
+        <v>475828.7754725877</v>
       </c>
       <c r="E6" t="n">
-        <v>223314.3691411001</v>
+        <v>222966.9898867436</v>
       </c>
       <c r="F6" t="n">
-        <v>548726.830948456</v>
+        <v>548379.451694099</v>
       </c>
       <c r="G6" t="n">
-        <v>548726.8309484557</v>
+        <v>548379.451694099</v>
       </c>
       <c r="H6" t="n">
-        <v>548726.830948456</v>
+        <v>548379.4516940992</v>
       </c>
       <c r="I6" t="n">
-        <v>548726.830948456</v>
+        <v>548379.4516940992</v>
       </c>
       <c r="J6" t="n">
-        <v>331195.6285511783</v>
+        <v>330848.2492968217</v>
       </c>
       <c r="K6" t="n">
-        <v>548726.8309484561</v>
+        <v>548379.451694099</v>
       </c>
       <c r="L6" t="n">
-        <v>548726.8309484558</v>
+        <v>548379.4516940992</v>
       </c>
       <c r="M6" t="n">
-        <v>463671.8030129439</v>
+        <v>463324.423758587</v>
       </c>
       <c r="N6" t="n">
-        <v>548726.8309484558</v>
+        <v>548379.451694099</v>
       </c>
       <c r="O6" t="n">
-        <v>548726.8309484558</v>
+        <v>548379.4516940989</v>
       </c>
       <c r="P6" t="n">
-        <v>548726.8309484558</v>
+        <v>548379.451694099</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>24.39367950488671</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>150.0882792706478</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.8582917620346</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>110.4596491456687</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.79419214140358</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.5570421814223</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>197.2854761230489</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>112.0492461931128</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>88.2951351302119</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.81768359636456e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>270.3182595810207</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,31 +32548,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,16 +33022,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>537.6437863443696</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33259,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>572.8682992214867</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3364854949992</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236314005</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427311</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>395.0475418999251</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>430.2720547770423</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2791117.093472043</v>
+        <v>2792877.623774826</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8802557.796585793</v>
+        <v>8802557.796585795</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886408</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>236.1496593854058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677259</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>271.4707209265931</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>93.45832099395359</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>209.5905696186626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>213.6362495304055</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>58.28185552386407</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176154</v>
+        <v>136.6755965411349</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>34.21058558914884</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="E31" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>240.7377005646516</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.52079624060465</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>68.17501931583824</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4336,10 +4336,10 @@
         <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4476,64 +4476,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1506.36381994936</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1506.36381994936</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1506.36381994936</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989293</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013481</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.660964416652</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.660964416652</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="E8" t="n">
-        <v>1032.872711818408</v>
+        <v>1032.872711818409</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>621.8868070288015</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4816,16 +4816,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4950,61 +4950,61 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2345.361232772917</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2125.759767795858</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.684541140056</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,16 +6007,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6715,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.7594328861248</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1734.29168600076</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1479.607197794873</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.190027757912</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>962.2004768598947</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>741.4078977163646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,25 +6949,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,16 +7192,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746423</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>11.93987647707743</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="E31" t="n">
-        <v>43.26526345294944</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>45.44677382459258</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.85445046951701</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>72.11969353038562</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761859.2038385634</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385636</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761859.2038385633</v>
+        <v>761859.2038385635</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761859.2038385635</v>
+        <v>761859.2038385634</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380341</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380337</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.5839718919</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="F4" t="n">
+        <v>16046.58397189202</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189203</v>
+      </c>
+      <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189192</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189192</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26447,10 +26447,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550044</v>
+        <v>-852915.9702550047</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725879</v>
+        <v>475828.7754725877</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725883</v>
       </c>
       <c r="E6" t="n">
-        <v>222966.9898867436</v>
+        <v>223279.6312156651</v>
       </c>
       <c r="F6" t="n">
-        <v>548379.451694099</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="G6" t="n">
-        <v>548379.451694099</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="H6" t="n">
-        <v>548379.4516940992</v>
+        <v>548692.09302302</v>
       </c>
       <c r="I6" t="n">
-        <v>548379.4516940992</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="J6" t="n">
-        <v>330848.2492968217</v>
+        <v>331160.8906257424</v>
       </c>
       <c r="K6" t="n">
-        <v>548379.451694099</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="L6" t="n">
-        <v>548379.4516940992</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="M6" t="n">
-        <v>463324.423758587</v>
+        <v>463637.0650875085</v>
       </c>
       <c r="N6" t="n">
-        <v>548379.451694099</v>
+        <v>548692.0930230198</v>
       </c>
       <c r="O6" t="n">
-        <v>548379.4516940989</v>
+        <v>548692.0930230201</v>
       </c>
       <c r="P6" t="n">
-        <v>548379.451694099</v>
+        <v>548692.0930230201</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100.0350347748398</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.0882792706478</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351647</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>110.4596491456687</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>110.4596491456665</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>197.2854761230489</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>197.2854761230479</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>160.3027978282307</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
